--- a/AcsRequirements.xlsx
+++ b/AcsRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoran\Desktop\Annual One Pagers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iokee\Documents\R\ACSAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EE1BC6-0B18-4FE8-8A60-22D6C193D25E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166E4420-774B-4013-A981-64303EBEBEE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{50822107-76D5-4492-AC83-2E4A9CAB7202}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{50822107-76D5-4492-AC83-2E4A9CAB7202}"/>
   </bookViews>
   <sheets>
     <sheet name="Devo" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Source</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>American Community Survey Most Recent 5-year aggregate data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% children below poverty level </t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -183,17 +186,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E22F3-DFBC-4636-B1EE-1B181B67A3D2}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +643,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -719,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706E7A75-F815-44EA-BEBA-1E1AEFD94792}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="B2:D5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
